--- a/data/trans_bre/IMC_R2-Urba-trans_bre.xlsx
+++ b/data/trans_bre/IMC_R2-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,10 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +546,18 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -576,22 +584,42 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -606,6 +634,10 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +652,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-11,81</t>
+          <t>-11,64</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-12,14</t>
+          <t>-12,03</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-14,57</t>
+          <t>-13,25</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-10,73</t>
+          <t>-10,09</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-20,24%</t>
+          <t>-10,93</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-20,91%</t>
+          <t>-12,36</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-24,08%</t>
+          <t>-19,96%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-17,84%</t>
+          <t>-20,74%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>-22,13%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-16,77%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-17,06%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-21,73%</t>
         </is>
       </c>
     </row>
@@ -668,42 +720,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-17,43; -5,94</t>
+          <t>-17,9; -5,07</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-18,34; -6,71</t>
+          <t>-17,91; -6,15</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-20,94; -9,03</t>
+          <t>-19,04; -7,75</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-16,06; -5,64</t>
+          <t>-15,68; -4,39</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-28,12; -10,5</t>
+          <t>-16,19; -5,63</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-29,78; -12,0</t>
+          <t>-19,19; -4,22</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-33,53; -15,75</t>
+          <t>-28,87; -9,52</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-25,58; -9,68</t>
+          <t>-29,18; -11,27</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-30,12; -13,87</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-24,79; -7,47</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-24,16; -9,42</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-31,63; -8,76</t>
         </is>
       </c>
     </row>
@@ -720,42 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-13,81</t>
+          <t>-16,15</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-9,02</t>
+          <t>-10,27</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-13,44</t>
+          <t>-13,98</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-8,76</t>
+          <t>-8,38</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-22,74%</t>
+          <t>-7,74</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-15,5%</t>
+          <t>-15,42</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-22,13%</t>
+          <t>-25,9%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-14,97%</t>
+          <t>-17,34%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-22,86%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-14,33%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-13,03%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-24,78%</t>
         </is>
       </c>
     </row>
@@ -768,42 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-21,1; -6,36</t>
+          <t>-23,13; -9,27</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-15,09; -2,24</t>
+          <t>-16,32; -3,9</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-19,72; -6,79</t>
+          <t>-20,58; -7,75</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-18,5; 2,06</t>
+          <t>-18,02; 2,79</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-33,08; -11,47</t>
+          <t>-17,58; 1,95</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-24,59; -4,49</t>
+          <t>-22,11; -7,47</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-30,98; -11,95</t>
+          <t>-35,23; -15,96</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-29,67; 3,5</t>
+          <t>-25,77; -6,96</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-31,63; -13,3</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-28,64; 5,6</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-27,44; 3,65</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-33,76; -13,32</t>
         </is>
       </c>
     </row>
@@ -820,17 +932,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,01</t>
+          <t>-2,55</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-24,48</t>
+          <t>-25,87</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-24,6</t>
+          <t>-26,53</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -840,22 +952,42 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>3,4%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-31,82%</t>
+          <t>-29,24</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-31,4%</t>
+          <t>-4,14%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
+          <t>-33,47%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-33,34%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-39,58%</t>
         </is>
       </c>
     </row>
@@ -868,17 +1000,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-13,01; 16,55</t>
+          <t>-14,73; 11,83</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-34,62; -12,64</t>
+          <t>-37,17; -14,44</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-35,16; -12,66</t>
+          <t>-37,36; -15,73</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -888,22 +1020,42 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-19,41; 33,03</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-43,55; -18,03</t>
+          <t>-42,19; -15,09</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-43,26; -18,03</t>
+          <t>-22,46; 21,51</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
+          <t>-45,72; -19,78</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-44,7; -20,51</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-53,35; -21,62</t>
         </is>
       </c>
     </row>
@@ -920,42 +1072,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-11,13</t>
+          <t>-12,5</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-12,54</t>
+          <t>-13,13</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-15,48</t>
+          <t>-15,27</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-10,27</t>
+          <t>-9,68</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-18,74%</t>
+          <t>-10,1</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-20,75%</t>
+          <t>-15,67</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-24,66%</t>
+          <t>-20,72%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-17,18%</t>
+          <t>-21,59%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>-24,31%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>-16,2%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-16,04%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-25,65%</t>
         </is>
       </c>
     </row>
@@ -968,42 +1140,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-15,77; -6,68</t>
+          <t>-17,24; -8,03</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-16,24; -8,36</t>
+          <t>-16,77; -9,26</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-19,45; -11,31</t>
+          <t>-19,13; -11,15</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-14,87; -5,23</t>
+          <t>-14,2; -4,87</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-25,49; -11,64</t>
+          <t>-15,22; -5,39</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-25,99; -14,32</t>
+          <t>-20,23; -10,43</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-29,91; -18,86</t>
+          <t>-27,09; -13,62</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-24,24; -9,29</t>
+          <t>-26,84; -15,82</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-29,54; -18,44</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-23,06; -8,57</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-23,38; -9,03</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-31,74; -17,65</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1011,11 +1210,11 @@
   <mergeCells count="7">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/IMC_R2-Urba-trans_bre.xlsx
+++ b/data/trans_bre/IMC_R2-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -650,419 +659,271 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-11,64</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-12,03</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-13,25</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-10,09</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-10,93</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-12,36</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-19,96%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>-20,74%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>-22,13%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>-16,77%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>-17,06%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>-21,73%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-12.0897855372173</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-11.78106559503407</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-13.92174646726883</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>-10.08678272672635</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>-11.04251729718849</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>-12.5641979494128</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>-0.2052069499467186</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>-0.2034546923128298</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>-0.2304915204650687</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>-0.167677177753561</v>
+      </c>
+      <c r="M4" s="6" t="n">
+        <v>-0.1725982460327478</v>
+      </c>
+      <c r="N4" s="6" t="n">
+        <v>-0.2201444681287641</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-17,9; -5,07</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-17,91; -6,15</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-19,04; -7,75</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-15,68; -4,39</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-16,19; -5,63</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-19,19; -4,22</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-28,87; -9,52</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-29,18; -11,27</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>-30,12; -13,87</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>-24,79; -7,47</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>-24,16; -9,42</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>-31,63; -8,76</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-18.26017760250295</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-17.73256257998768</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-19.98192249678816</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-15.67937691313589</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-16.35094043725081</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>-19.51071311157692</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.2932931547839339</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.2879529870099039</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>-0.3122415478259032</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>-0.2479016062682754</v>
+      </c>
+      <c r="M5" s="6" t="n">
+        <v>-0.2437935499165636</v>
+      </c>
+      <c r="N5" s="6" t="n">
+        <v>-0.3204749192655032</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>-5.578513889083933</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>-5.765460068951382</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>-8.422928801775228</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>-4.385072962370342</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>-5.827857227936621</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>-4.486420595604567</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>-0.1025488189477443</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>-0.1079112993444397</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>-0.1485210512192475</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>-0.07470904784201238</v>
+      </c>
+      <c r="M6" s="6" t="n">
+        <v>-0.09534394363350465</v>
+      </c>
+      <c r="N6" s="6" t="n">
+        <v>-0.08641260995676149</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-16,15</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-10,27</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-13,98</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-8,38</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-7,74</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-15,42</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-25,9%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-17,34%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>-22,86%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>-14,33%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>-13,03%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>-24,78%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-23,13; -9,27</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-16,32; -3,9</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-20,58; -7,75</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-18,02; 2,79</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-17,58; 1,95</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-22,11; -7,47</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-35,23; -15,96</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-25,77; -6,96</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>-31,63; -13,3</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-28,64; 5,6</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>-27,44; 3,65</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>-33,76; -13,32</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-16.43988967968871</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-8.950346558080929</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-13.66408429068103</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-8.377757091230221</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>-7.853399611472788</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>-15.23286956256793</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>-0.2625016366530066</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>-0.1534267489684988</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>-0.2248273089763255</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>-0.1432512729919266</v>
+      </c>
+      <c r="M7" s="6" t="n">
+        <v>-0.1318284686950318</v>
+      </c>
+      <c r="N7" s="6" t="n">
+        <v>-0.2454452475900823</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-2,55</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-25,87</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-26,53</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-29,24</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-4,14%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-33,47%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>-33,34%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>-39,58%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-22.99734933516779</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-15.11074465782603</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-19.83487660810071</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-18.01738397827474</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-17.76327031126329</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>-21.91034794902726</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.3516668428651984</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.2430624595485452</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>-0.3128901447111061</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>-0.2863959447442815</v>
+      </c>
+      <c r="M8" s="6" t="n">
+        <v>-0.2782153878074628</v>
+      </c>
+      <c r="N8" s="6" t="n">
+        <v>-0.3368427749383618</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-14,73; 11,83</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-37,17; -14,44</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-37,36; -15,73</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-42,19; -15,09</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-22,46; 21,51</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-45,72; -19,78</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-44,7; -20,51</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>-53,35; -21,62</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>-9.274158239039741</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>-2.017249208503011</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>-7.116545399553383</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>2.791583010217072</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>1.57874641336456</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>-7.344462505677724</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>-0.1609940210741781</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>-0.03591877437856648</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>-0.1251216218189998</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>0.05600486349838783</v>
+      </c>
+      <c r="M9" s="6" t="n">
+        <v>0.02667592518535157</v>
+      </c>
+      <c r="N9" s="6" t="n">
+        <v>-0.1286345238124913</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1070,137 +931,245 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-12,5</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-13,13</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-15,27</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-9,68</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>-10,1</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-15,67</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>-20,72%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>-21,59%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>-24,31%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>-16,2%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>-16,04%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>-25,65%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>2.248474992002292</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-24.98187183267449</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-25.28733573951155</v>
+      </c>
+      <c r="F10" s="5" t="inlineStr"/>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="n">
+        <v>-28.47703211164066</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>0.03920366578081086</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>-0.3261514927896191</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>-0.3232740264415629</v>
+      </c>
+      <c r="L10" s="6" t="inlineStr"/>
+      <c r="M10" s="6" t="inlineStr"/>
+      <c r="N10" s="6" t="n">
+        <v>-0.3865298892633715</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-17,24; -8,03</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-16,77; -9,26</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-19,13; -11,15</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-14,2; -4,87</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-15,22; -5,39</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-20,23; -10,43</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-27,09; -13,62</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-26,84; -15,82</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>-29,54; -18,44</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>-23,06; -8,57</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>-23,38; -9,03</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>-31,74; -17,65</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-11.31900817515278</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-35.97076640752064</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-36.63865504409191</v>
+      </c>
+      <c r="F11" s="5" t="inlineStr"/>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="n">
+        <v>-41.81620543635262</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.1759070921040117</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.4515737802984097</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-0.4427533620541267</v>
+      </c>
+      <c r="L11" s="6" t="inlineStr"/>
+      <c r="M11" s="6" t="inlineStr"/>
+      <c r="N11" s="6" t="n">
+        <v>-0.5265748322551287</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>17.76953974593979</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>-13.38232957055863</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>-13.93363138921571</v>
+      </c>
+      <c r="F12" s="5" t="inlineStr"/>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="n">
+        <v>-13.99385680917972</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>0.3753028049794772</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>-0.1923947342443398</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>-0.1910841150554264</v>
+      </c>
+      <c r="L12" s="6" t="inlineStr"/>
+      <c r="M12" s="6" t="inlineStr"/>
+      <c r="N12" s="6" t="n">
+        <v>-0.2092453061797447</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>-12.24786152913004</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-12.38821944006322</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>-15.31649832419323</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>-9.679177020937157</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>-10.2160707241969</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>-15.59956962036035</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>-0.2034564034673161</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>-0.2052232947224326</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>-0.2441019492066667</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>-0.1619779742268587</v>
+      </c>
+      <c r="M13" s="6" t="n">
+        <v>-0.1624286808886257</v>
+      </c>
+      <c r="N13" s="6" t="n">
+        <v>-0.2553862567674454</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-17.09013701004821</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-16.05033445988632</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-19.29303094209303</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-14.20167516210668</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-15.26344058873675</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>-20.23010337290662</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.2722554218632074</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.2576835741694065</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>-0.2986169516707188</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>-0.2306320988090874</v>
+      </c>
+      <c r="M14" s="6" t="n">
+        <v>-0.234442627069686</v>
+      </c>
+      <c r="N14" s="6" t="n">
+        <v>-0.3183335064777327</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>-7.675344446887654</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>-8.315630916435349</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>-11.28487077723346</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>-4.867345841656342</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>-5.503199269845183</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>-10.48139102638081</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>-0.1344100407140172</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>-0.1449609480245806</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>-0.1880352495481128</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>-0.08565530689992594</v>
+      </c>
+      <c r="M15" s="6" t="n">
+        <v>-0.09161502971445887</v>
+      </c>
+      <c r="N15" s="6" t="n">
+        <v>-0.180157668063844</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -1208,12 +1177,12 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
     <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
